--- a/ttfd_output_05-09-2025.xlsx
+++ b/ttfd_output_05-09-2025.xlsx
@@ -3,39 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <sheets>
-    <sheet sheetId="1" name="Demo" state="visible" r:id="rId4"/>
-  </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Run Time</t>
-  </si>
-  <si>
-    <t>Time taken to fully drawn (TTFD)</t>
-  </si>
-  <si>
-    <t>66.7s</t>
-  </si>
-  <si>
-    <t>08:18 AM EST</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -43,21 +17,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,11 +38,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,42 +375,4 @@
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>